--- a/results/acl-en/xlm-roberta/results_pos_postprocessed.xlsx
+++ b/results/acl-en/xlm-roberta/results_pos_postprocessed.xlsx
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.9466081291601756</v>
+        <v>0.9551048599773955</v>
       </c>
       <c r="D2" s="9">
-        <v>0.5105981211348724</v>
+        <v>0.4118422705010674</v>
       </c>
       <c r="E2" s="9">
-        <v>0.8630977670773734</v>
+        <v>0.8597262338314705</v>
       </c>
       <c r="F2" s="9">
-        <v>0.7869045933059529</v>
+        <v>0.7750219766419691</v>
       </c>
       <c r="G2" s="9">
-        <v>0.6463673700608978</v>
+        <v>0.6469923395705136</v>
       </c>
       <c r="H2" s="9">
-        <v>0.8137185478921777</v>
+        <v>0.7880195906065554</v>
       </c>
       <c r="I2" s="9">
-        <v>0.655147996034556</v>
+        <v>0.6488760517392942</v>
       </c>
       <c r="J2" s="9">
-        <v>0.5702214039560024</v>
+        <v>0.5761647620243627</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>24</v>
@@ -678,37 +678,37 @@
         <v>24</v>
       </c>
       <c r="M2" s="9">
-        <v>0.7958268422791861</v>
+        <v>0.8017078990330277</v>
       </c>
       <c r="N2" s="9">
-        <v>0.7076901288769296</v>
+        <v>0.7234710536230065</v>
       </c>
       <c r="O2" s="9">
-        <v>0.6349903224283624</v>
+        <v>0.6515760391812131</v>
       </c>
       <c r="P2" s="9">
-        <v>0.5907095312278714</v>
+        <v>0.5888484239608188</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.5190482934428551</v>
+        <v>0.5143162124827326</v>
       </c>
       <c r="R2" s="9">
-        <v>0.6685549733276684</v>
+        <v>0.6582318221775713</v>
       </c>
       <c r="S2" s="9">
-        <v>0.6469810697257234</v>
+        <v>0.6500690694461886</v>
       </c>
       <c r="T2" s="9">
-        <v>0.7884152386347543</v>
+        <v>0.7784126585457742</v>
       </c>
       <c r="U2" s="9">
-        <v>0.6932445829202663</v>
+        <v>0.6902549290468416</v>
       </c>
       <c r="V2" s="9">
-        <v>0.3643959779068121</v>
+        <v>0.3450960693206078</v>
       </c>
       <c r="W2" s="9">
-        <v>0.1907189727611764</v>
+        <v>0.1982921009669723</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,28 +719,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8516876760400794</v>
+        <v>0.8397333333333333</v>
       </c>
       <c r="D3" s="8">
-        <v>0.9042803712425543</v>
+        <v>0.978718774</v>
       </c>
       <c r="E3" s="9">
-        <v>0.8226439488387126</v>
+        <v>0.810360153</v>
       </c>
       <c r="F3" s="9">
-        <v>0.7632636099182712</v>
+        <v>0.733716475</v>
       </c>
       <c r="G3" s="9">
-        <v>0.8141478505794894</v>
+        <v>0.854893487</v>
       </c>
       <c r="H3" s="9">
-        <v>0.8193193886503209</v>
+        <v>0.806540996</v>
       </c>
       <c r="I3" s="9">
-        <v>0.6413168952301797</v>
+        <v>0.646731034</v>
       </c>
       <c r="J3" s="9">
-        <v>0.5425959274137693</v>
+        <v>0.557391571</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>24</v>
@@ -749,37 +749,37 @@
         <v>24</v>
       </c>
       <c r="M3" s="9">
-        <v>0.752274091517754</v>
+        <v>0.702118008</v>
       </c>
       <c r="N3" s="9">
-        <v>0.6939557648797156</v>
+        <v>0.683261303</v>
       </c>
       <c r="O3" s="9">
-        <v>0.6444105831832664</v>
+        <v>0.626378544</v>
       </c>
       <c r="P3" s="9">
-        <v>0.598051438334026</v>
+        <v>0.581029885</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.5526157824260054</v>
+        <v>0.538228352</v>
       </c>
       <c r="R3" s="9">
-        <v>0.6839820843145403</v>
+        <v>0.674884291</v>
       </c>
       <c r="S3" s="9">
-        <v>0.6508288313247449</v>
+        <v>0.647184674</v>
       </c>
       <c r="T3" s="9">
-        <v>0.7581382462945007</v>
+        <v>0.738366284</v>
       </c>
       <c r="U3" s="9">
-        <v>0.6963568361268874</v>
+        <v>0.682354023</v>
       </c>
       <c r="V3" s="9">
-        <v>0.4888026965877084</v>
+        <v>0.505213793</v>
       </c>
       <c r="W3" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,28 +790,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.8683058268777366</v>
+        <v>0.8783924546883581</v>
       </c>
       <c r="D4" s="9">
-        <v>0.8137841023913776</v>
+        <v>0.8256851200000001</v>
       </c>
       <c r="E4" s="8">
-        <v>0.8960929605927922</v>
+        <v>0.986913127</v>
       </c>
       <c r="F4" s="9">
-        <v>0.8161839003031324</v>
+        <v>0.863335922</v>
       </c>
       <c r="G4" s="9">
-        <v>0.8508336140114516</v>
+        <v>0.886498362</v>
       </c>
       <c r="H4" s="9">
-        <v>0.7980801616705961</v>
+        <v>0.784416962</v>
       </c>
       <c r="I4" s="9">
-        <v>0.5787302121926574</v>
+        <v>0.581504138</v>
       </c>
       <c r="J4" s="9">
-        <v>0.5846244526776693</v>
+        <v>0.582148065</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>24</v>
@@ -820,37 +820,37 @@
         <v>24</v>
       </c>
       <c r="M4" s="9">
-        <v>0.7593465813405187</v>
+        <v>0.832711502</v>
       </c>
       <c r="N4" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.626048749</v>
       </c>
       <c r="O4" s="9">
-        <v>0.5741411249578983</v>
+        <v>0.589666862</v>
       </c>
       <c r="P4" s="9">
-        <v>0.515998652745032</v>
+        <v>0.52040681</v>
       </c>
       <c r="Q4" s="9">
-        <v>0.5028629168070057</v>
+        <v>0.494952747</v>
       </c>
       <c r="R4" s="9">
-        <v>0.6033597170764567</v>
+        <v>0.62426848</v>
       </c>
       <c r="S4" s="9">
-        <v>0.6574604243853149</v>
+        <v>0.651635386</v>
       </c>
       <c r="T4" s="9">
-        <v>0.7649461098012799</v>
+        <v>0.75441753</v>
       </c>
       <c r="U4" s="9">
-        <v>0.7121505557426743</v>
+        <v>0.706160868</v>
       </c>
       <c r="V4" s="9">
-        <v>0.4090602896598181</v>
+        <v>0.40243556</v>
       </c>
       <c r="W4" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,25 +864,25 @@
         <v>0.8514737488486337</v>
       </c>
       <c r="D5" s="9">
-        <v>0.8269112680380718</v>
+        <v>0.826911268</v>
       </c>
       <c r="E5" s="9">
-        <v>0.8875498925391464</v>
+        <v>0.887549893</v>
       </c>
       <c r="F5" s="8">
-        <v>0.9636935830518882</v>
+        <v>0.963693583</v>
       </c>
       <c r="G5" s="9">
-        <v>0.856002456248081</v>
+        <v>0.856002456</v>
       </c>
       <c r="H5" s="9">
-        <v>0.8171630334663801</v>
+        <v>0.817163033</v>
       </c>
       <c r="I5" s="9">
-        <v>0.68360454405895</v>
+        <v>0.683604544</v>
       </c>
       <c r="J5" s="9">
-        <v>0.6137549892539147</v>
+        <v>0.613754989</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>24</v>
@@ -891,34 +891,34 @@
         <v>24</v>
       </c>
       <c r="M5" s="9">
-        <v>0.762818544673012</v>
+        <v>0.761974209</v>
       </c>
       <c r="N5" s="9">
-        <v>0.7866134479582437</v>
+        <v>0.786613448</v>
       </c>
       <c r="O5" s="9">
-        <v>0.7462388701258827</v>
+        <v>0.74623887</v>
       </c>
       <c r="P5" s="9">
-        <v>0.618053423395763</v>
+        <v>0.618053423</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.6328676696346331</v>
+        <v>0.63286767</v>
       </c>
       <c r="R5" s="9">
-        <v>0.7411728584587043</v>
+        <v>0.741172858</v>
       </c>
       <c r="S5" s="9">
-        <v>0.7724132637396377</v>
+        <v>0.772413264</v>
       </c>
       <c r="T5" s="9">
-        <v>0.7645072152287381</v>
+        <v>0.764507215</v>
       </c>
       <c r="U5" s="9">
-        <v>0.7322689591648757</v>
+        <v>0.732268959</v>
       </c>
       <c r="V5" s="9">
-        <v>0.6486797666564323</v>
+        <v>0.648679767</v>
       </c>
       <c r="W5" s="9">
         <v>0.2521492170709241</v>
@@ -935,25 +935,25 @@
         <v>0.9003537342321297</v>
       </c>
       <c r="D6" s="9">
-        <v>0.8674831475672429</v>
+        <v>0.867483148</v>
       </c>
       <c r="E6" s="9">
-        <v>0.8573383167589935</v>
+        <v>0.857338317</v>
       </c>
       <c r="F6" s="9">
-        <v>0.7851231395581659</v>
+        <v>0.7851231400000001</v>
       </c>
       <c r="G6" s="8">
-        <v>0.9770740172195155</v>
+        <v>0.977074017</v>
       </c>
       <c r="H6" s="9">
-        <v>0.8065474204097978</v>
+        <v>0.80654742</v>
       </c>
       <c r="I6" s="9">
-        <v>0.6814389641593807</v>
+        <v>0.681438964</v>
       </c>
       <c r="J6" s="9">
-        <v>0.5748514983648134</v>
+        <v>0.574851498</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>24</v>
@@ -962,34 +962,34 @@
         <v>24</v>
       </c>
       <c r="M6" s="9">
-        <v>0.8159247146766335</v>
+        <v>0.789728359</v>
       </c>
       <c r="N6" s="9">
-        <v>0.7490155509577521</v>
+        <v>0.7490155509999999</v>
       </c>
       <c r="O6" s="9">
-        <v>0.6452980044049923</v>
+        <v>0.645298004</v>
       </c>
       <c r="P6" s="9">
-        <v>0.5827270907027965</v>
+        <v>0.582727091</v>
       </c>
       <c r="Q6" s="9">
-        <v>0.5233264366281786</v>
+        <v>0.523326437</v>
       </c>
       <c r="R6" s="9">
-        <v>0.6628178602416072</v>
+        <v>0.66281786</v>
       </c>
       <c r="S6" s="9">
-        <v>0.6919842488153241</v>
+        <v>0.691984249</v>
       </c>
       <c r="T6" s="9">
-        <v>0.7884936261095908</v>
+        <v>0.7884936259999999</v>
       </c>
       <c r="U6" s="9">
-        <v>0.6943536007475138</v>
+        <v>0.694353601</v>
       </c>
       <c r="V6" s="9">
-        <v>0.4543482613628779</v>
+        <v>0.454348261</v>
       </c>
       <c r="W6" s="9">
         <v>0.1827738103183608</v>
@@ -1006,25 +1006,25 @@
         <v>0.8353781358725508</v>
       </c>
       <c r="D7" s="9">
-        <v>0.8221937374107307</v>
+        <v>0.822193737</v>
       </c>
       <c r="E7" s="9">
-        <v>0.8205456876030031</v>
+        <v>0.8205456880000001</v>
       </c>
       <c r="F7" s="9">
-        <v>0.7781541842153452</v>
+        <v>0.778154184</v>
       </c>
       <c r="G7" s="9">
-        <v>0.7795275590551181</v>
+        <v>0.779527559</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9749130195934811</v>
+        <v>0.97491302</v>
       </c>
       <c r="I7" s="9">
-        <v>0.582219373741073</v>
+        <v>0.582219374</v>
       </c>
       <c r="J7" s="9">
-        <v>0.4966123420618934</v>
+        <v>0.496612342</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>24</v>
@@ -1033,34 +1033,34 @@
         <v>24</v>
       </c>
       <c r="M7" s="9">
-        <v>0.6662699139351768</v>
+        <v>0.691814686</v>
       </c>
       <c r="N7" s="9">
-        <v>0.6705731550997985</v>
+        <v>0.670573155</v>
       </c>
       <c r="O7" s="9">
-        <v>0.6035524629188793</v>
+        <v>0.603552463</v>
       </c>
       <c r="P7" s="9">
-        <v>0.5451382530672038</v>
+        <v>0.545138253</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.4956052005127266</v>
+        <v>0.495605201</v>
       </c>
       <c r="R7" s="9">
-        <v>0.6399011170115364</v>
+        <v>0.639901117</v>
       </c>
       <c r="S7" s="9">
-        <v>0.6653543307086615</v>
+        <v>0.665354331</v>
       </c>
       <c r="T7" s="9">
-        <v>0.7207471159128365</v>
+        <v>0.720747116</v>
       </c>
       <c r="U7" s="9">
-        <v>0.6539095403772203</v>
+        <v>0.65390954</v>
       </c>
       <c r="V7" s="9">
-        <v>0.4848013184398462</v>
+        <v>0.484801318</v>
       </c>
       <c r="W7" s="9">
         <v>0.2104925837758652</v>
@@ -1074,28 +1074,28 @@
         <v>8</v>
       </c>
       <c r="C8" s="9">
-        <v>0.6855475134251693</v>
+        <v>0.677905427905428</v>
       </c>
       <c r="D8" s="9">
-        <v>0.5361662386177912</v>
+        <v>0.5348817850000001</v>
       </c>
       <c r="E8" s="9">
-        <v>0.4161568993696008</v>
+        <v>0.440892441</v>
       </c>
       <c r="F8" s="9">
-        <v>0.3770254494513192</v>
+        <v>0.367715618</v>
       </c>
       <c r="G8" s="9">
-        <v>0.6134485173943498</v>
+        <v>0.620546121</v>
       </c>
       <c r="H8" s="9">
-        <v>0.6109269203829092</v>
+        <v>0.61038961</v>
       </c>
       <c r="I8" s="8">
-        <v>0.9408825589540042</v>
+        <v>0.963869464</v>
       </c>
       <c r="J8" s="9">
-        <v>0.4914779360261499</v>
+        <v>0.528221778</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>24</v>
@@ -1104,37 +1104,37 @@
         <v>24</v>
       </c>
       <c r="M8" s="9">
-        <v>0.6161568993696007</v>
+        <v>0.571012321</v>
       </c>
       <c r="N8" s="9">
-        <v>0.5790333878122811</v>
+        <v>0.599483849</v>
       </c>
       <c r="O8" s="9">
-        <v>0.5583469530702778</v>
+        <v>0.581585082</v>
       </c>
       <c r="P8" s="9">
-        <v>0.6368900303525566</v>
+        <v>0.642440892</v>
       </c>
       <c r="Q8" s="9">
-        <v>0.6375904739668457</v>
+        <v>0.650682651</v>
       </c>
       <c r="R8" s="9">
-        <v>0.5053934158300257</v>
+        <v>0.523143523</v>
       </c>
       <c r="S8" s="9">
-        <v>0.5317300957272939</v>
+        <v>0.509240759</v>
       </c>
       <c r="T8" s="9">
-        <v>0.6628531403222041</v>
+        <v>0.664418914</v>
       </c>
       <c r="U8" s="9">
-        <v>0.5795937427037123</v>
+        <v>0.577755578</v>
       </c>
       <c r="V8" s="9">
-        <v>0.45991127714219</v>
+        <v>0.475690976</v>
       </c>
       <c r="W8" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,25 +1148,25 @@
         <v>0.6198243412797992</v>
       </c>
       <c r="D9" s="9">
-        <v>0.45211208699289</v>
+        <v>0.452112087</v>
       </c>
       <c r="E9" s="9">
-        <v>0.6002509410288582</v>
+        <v>0.600250941</v>
       </c>
       <c r="F9" s="9">
-        <v>0.6163948138854036</v>
+        <v>0.616394814</v>
       </c>
       <c r="G9" s="9">
-        <v>0.6167294019238813</v>
+        <v>0.616729402</v>
       </c>
       <c r="H9" s="9">
-        <v>0.5899623588456713</v>
+        <v>0.589962359</v>
       </c>
       <c r="I9" s="9">
-        <v>0.5891258887494772</v>
+        <v>0.589125889</v>
       </c>
       <c r="J9" s="8">
-        <v>0.8940192388122125</v>
+        <v>0.894019239</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>24</v>
@@ -1175,34 +1175,34 @@
         <v>24</v>
       </c>
       <c r="M9" s="9">
-        <v>0.6517774989544124</v>
+        <v>0.631116688</v>
       </c>
       <c r="N9" s="9">
-        <v>0.5692179004600586</v>
+        <v>0.5692179000000001</v>
       </c>
       <c r="O9" s="9">
-        <v>0.59155165202844</v>
+        <v>0.591551652</v>
       </c>
       <c r="P9" s="9">
-        <v>0.5206189878711837</v>
+        <v>0.5206189879999999</v>
       </c>
       <c r="Q9" s="9">
-        <v>0.5235466332078628</v>
+        <v>0.523546633</v>
       </c>
       <c r="R9" s="9">
-        <v>0.5591802593057298</v>
+        <v>0.559180259</v>
       </c>
       <c r="S9" s="9">
-        <v>0.5895441237975743</v>
+        <v>0.589544124</v>
       </c>
       <c r="T9" s="9">
-        <v>0.6342952739439565</v>
+        <v>0.634295274</v>
       </c>
       <c r="U9" s="9">
-        <v>0.5713090757005437</v>
+        <v>0.571309076</v>
       </c>
       <c r="V9" s="9">
-        <v>0.4568799665411962</v>
+        <v>0.456879967</v>
       </c>
       <c r="W9" s="9">
         <v>0.3210372229192807</v>
@@ -1219,25 +1219,25 @@
         <v>0.662440641519577</v>
       </c>
       <c r="D10" s="9">
-        <v>0.5725293432488129</v>
+        <v>0.572529343</v>
       </c>
       <c r="E10" s="9">
-        <v>0.5664366992205</v>
+        <v>0.566436699</v>
       </c>
       <c r="F10" s="9">
-        <v>0.5450676462682555</v>
+        <v>0.545067646</v>
       </c>
       <c r="G10" s="9">
-        <v>0.5922408386345309</v>
+        <v>0.592240839</v>
       </c>
       <c r="H10" s="9">
-        <v>0.6112355523698594</v>
+        <v>0.611235552</v>
       </c>
       <c r="I10" s="9">
-        <v>0.6711764178837022</v>
+        <v>0.6711764180000001</v>
       </c>
       <c r="J10" s="9">
-        <v>0.5743660962279366</v>
+        <v>0.574366096</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>24</v>
@@ -1246,34 +1246,34 @@
         <v>24</v>
       </c>
       <c r="M10" s="9">
-        <v>0.693083057073739</v>
+        <v>0.622480065</v>
       </c>
       <c r="N10" s="9">
-        <v>0.6097123913627811</v>
+        <v>0.609712391</v>
       </c>
       <c r="O10" s="9">
-        <v>0.5677806648149807</v>
+        <v>0.567780665</v>
       </c>
       <c r="P10" s="9">
-        <v>0.5181435355254905</v>
+        <v>0.518143536</v>
       </c>
       <c r="Q10" s="9">
-        <v>0.5470387958068273</v>
+        <v>0.547038796</v>
       </c>
       <c r="R10" s="9">
-        <v>0.4740166651733715</v>
+        <v>0.474016665</v>
       </c>
       <c r="S10" s="9">
-        <v>0.5938535973479079</v>
+        <v>0.593853597</v>
       </c>
       <c r="T10" s="8">
-        <v>0.7003852701370845</v>
+        <v>0.7003852699999999</v>
       </c>
       <c r="U10" s="9">
-        <v>0.5904040856554073</v>
+        <v>0.5904040860000001</v>
       </c>
       <c r="V10" s="9">
-        <v>0.4326673237165128</v>
+        <v>0.432667324</v>
       </c>
       <c r="W10" s="9">
         <v>0.271122659259923</v>
@@ -1290,25 +1290,25 @@
         <v>0.6340709872108061</v>
       </c>
       <c r="D11" s="9">
-        <v>0.4946112947262538</v>
+        <v>0.494611295</v>
       </c>
       <c r="E11" s="9">
-        <v>0.4387124586865929</v>
+        <v>0.438712459</v>
       </c>
       <c r="F11" s="9">
-        <v>0.4539445322603822</v>
+        <v>0.453944532</v>
       </c>
       <c r="G11" s="9">
-        <v>0.4364851271734445</v>
+        <v>0.436485127</v>
       </c>
       <c r="H11" s="9">
-        <v>0.5663888489725535</v>
+        <v>0.566388849</v>
       </c>
       <c r="I11" s="8">
-        <v>0.8009771518896394</v>
+        <v>0.800977152</v>
       </c>
       <c r="J11" s="9">
-        <v>0.4737749676677683</v>
+        <v>0.473774968</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>24</v>
@@ -1317,34 +1317,34 @@
         <v>24</v>
       </c>
       <c r="M11" s="9">
-        <v>0.5781003017674954</v>
+        <v>0.488360397</v>
       </c>
       <c r="N11" s="9">
-        <v>0.554318149159362</v>
+        <v>0.554318149</v>
       </c>
       <c r="O11" s="9">
-        <v>0.5592757580112085</v>
+        <v>0.559275758</v>
       </c>
       <c r="P11" s="9">
-        <v>0.581477223739043</v>
+        <v>0.581477224</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.6109354792355224</v>
+        <v>0.610935479</v>
       </c>
       <c r="R11" s="9">
-        <v>0.5011495904583992</v>
+        <v>0.50114959</v>
       </c>
       <c r="S11" s="9">
-        <v>0.4719787325765196</v>
+        <v>0.471978733</v>
       </c>
       <c r="T11" s="9">
-        <v>0.6088518465296738</v>
+        <v>0.6088518469999999</v>
       </c>
       <c r="U11" s="9">
-        <v>0.5579824687455094</v>
+        <v>0.557982469</v>
       </c>
       <c r="V11" s="9">
-        <v>0.4331800546055468</v>
+        <v>0.433180055</v>
       </c>
       <c r="W11" s="9">
         <v>0.1960770225607127</v>
@@ -1358,28 +1358,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>0.8479093198992443</v>
+        <v>0.8289473684210527</v>
       </c>
       <c r="D12" s="9">
-        <v>0.7060957178841309</v>
+        <v>0.686417657</v>
       </c>
       <c r="E12" s="9">
-        <v>0.8278589420654912</v>
+        <v>0.8378607810000001</v>
       </c>
       <c r="F12" s="9">
-        <v>0.7712342569269521</v>
+        <v>0.774787776</v>
       </c>
       <c r="G12" s="9">
-        <v>0.8329974811083123</v>
+        <v>0.836842105</v>
       </c>
       <c r="H12" s="9">
-        <v>0.7297229219143577</v>
+        <v>0.697368421</v>
       </c>
       <c r="I12" s="9">
-        <v>0.6760705289672544</v>
+        <v>0.687436333</v>
       </c>
       <c r="J12" s="9">
-        <v>0.601360201511335</v>
+        <v>0.59533107</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>24</v>
@@ -1388,37 +1388,37 @@
         <v>24</v>
       </c>
       <c r="M12" s="8">
-        <v>0.9090176322418136</v>
+        <v>0.92860781</v>
       </c>
       <c r="N12" s="9">
-        <v>0.7426700251889169</v>
+        <v>0.749660441</v>
       </c>
       <c r="O12" s="9">
-        <v>0.6934508816120907</v>
+        <v>0.697198642</v>
       </c>
       <c r="P12" s="9">
-        <v>0.6066498740554156</v>
+        <v>0.61663837</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.5818639798488665</v>
+        <v>0.582258065</v>
       </c>
       <c r="R12" s="9">
-        <v>0.6738539042821159</v>
+        <v>0.672920204</v>
       </c>
       <c r="S12" s="9">
-        <v>0.6845340050377834</v>
+        <v>0.613157895</v>
       </c>
       <c r="T12" s="9">
-        <v>0.7901259445843829</v>
+        <v>0.771646859</v>
       </c>
       <c r="U12" s="9">
-        <v>0.6717380352644836</v>
+        <v>0.669439728</v>
       </c>
       <c r="V12" s="9">
-        <v>0.5247858942065491</v>
+        <v>0.545925297</v>
       </c>
       <c r="W12" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,28 +1429,28 @@
         <v>13</v>
       </c>
       <c r="C13" s="9">
-        <v>0.8760032863553056</v>
+        <v>0.8632964120041655</v>
       </c>
       <c r="D13" s="9">
-        <v>0.8009227074511787</v>
+        <v>0.776957304</v>
       </c>
       <c r="E13" s="9">
-        <v>0.8674714023889275</v>
+        <v>0.851415318</v>
       </c>
       <c r="F13" s="9">
-        <v>0.7777918220312203</v>
+        <v>0.765218215</v>
       </c>
       <c r="G13" s="9">
-        <v>0.8564747519433735</v>
+        <v>0.830729906</v>
       </c>
       <c r="H13" s="9">
-        <v>0.8094545914175567</v>
+        <v>0.830587901</v>
       </c>
       <c r="I13" s="9">
-        <v>0.7335524236870379</v>
+        <v>0.740698665</v>
       </c>
       <c r="J13" s="9">
-        <v>0.5896479807874613</v>
+        <v>0.597368172</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>24</v>
@@ -1459,37 +1459,37 @@
         <v>24</v>
       </c>
       <c r="M13" s="9">
-        <v>0.8070530240788725</v>
+        <v>0.762614787</v>
       </c>
       <c r="N13" s="8">
-        <v>0.9735195601339822</v>
+        <v>0.967575499</v>
       </c>
       <c r="O13" s="9">
-        <v>0.8136257346900082</v>
+        <v>0.801997539</v>
       </c>
       <c r="P13" s="9">
-        <v>0.6806547430954939</v>
+        <v>0.677459055</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.7283700941667194</v>
+        <v>0.721906655</v>
       </c>
       <c r="R13" s="9">
-        <v>0.808380206029198</v>
+        <v>0.782400833</v>
       </c>
       <c r="S13" s="9">
-        <v>0.6688997029640397</v>
+        <v>0.6713055</v>
       </c>
       <c r="T13" s="9">
-        <v>0.8402325728370094</v>
+        <v>0.843794377</v>
       </c>
       <c r="U13" s="9">
-        <v>0.7315300511913038</v>
+        <v>0.71546909</v>
       </c>
       <c r="V13" s="9">
-        <v>0.6125260696454529</v>
+        <v>0.593392029</v>
       </c>
       <c r="W13" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,25 +1503,25 @@
         <v>0.7000492327890375</v>
       </c>
       <c r="D14" s="9">
-        <v>0.698859440387298</v>
+        <v>0.69885944</v>
       </c>
       <c r="E14" s="9">
-        <v>0.6964388282596209</v>
+        <v>0.696438828</v>
       </c>
       <c r="F14" s="9">
-        <v>0.6887256913104127</v>
+        <v>0.688725691</v>
       </c>
       <c r="G14" s="9">
-        <v>0.6591860178879133</v>
+        <v>0.659186018</v>
       </c>
       <c r="H14" s="9">
-        <v>0.672027570361861</v>
+        <v>0.67202757</v>
       </c>
       <c r="I14" s="9">
-        <v>0.6639862148190695</v>
+        <v>0.663986215</v>
       </c>
       <c r="J14" s="9">
-        <v>0.5811110199392796</v>
+        <v>0.58111102</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>24</v>
@@ -1530,34 +1530,34 @@
         <v>24</v>
       </c>
       <c r="M14" s="9">
-        <v>0.7226142610978912</v>
+        <v>0.695700336</v>
       </c>
       <c r="N14" s="9">
-        <v>0.7240091901206204</v>
+        <v>0.72400919</v>
       </c>
       <c r="O14" s="8">
-        <v>0.9456387954377615</v>
+        <v>0.945638795</v>
       </c>
       <c r="P14" s="9">
-        <v>0.6292770985476327</v>
+        <v>0.629277099</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.7147780421760893</v>
+        <v>0.7147780419999999</v>
       </c>
       <c r="R14" s="9">
-        <v>0.7069828505784853</v>
+        <v>0.706982851</v>
       </c>
       <c r="S14" s="9">
-        <v>0.5761877410355296</v>
+        <v>0.576187741</v>
       </c>
       <c r="T14" s="9">
-        <v>0.7304504800196931</v>
+        <v>0.73045048</v>
       </c>
       <c r="U14" s="9">
-        <v>0.6451136456880282</v>
+        <v>0.645113646</v>
       </c>
       <c r="V14" s="9">
-        <v>0.5845573151719045</v>
+        <v>0.584557315</v>
       </c>
       <c r="W14" s="9">
         <v>0.2485025026667761</v>
@@ -1574,25 +1574,25 @@
         <v>0.6005781569484594</v>
       </c>
       <c r="D15" s="9">
-        <v>0.5619050976521187</v>
+        <v>0.561905098</v>
       </c>
       <c r="E15" s="9">
-        <v>0.5896143270112106</v>
+        <v>0.589614327</v>
       </c>
       <c r="F15" s="9">
-        <v>0.5201297327786787</v>
+        <v>0.520129733</v>
       </c>
       <c r="G15" s="9">
-        <v>0.5671578650497074</v>
+        <v>0.567157865</v>
       </c>
       <c r="H15" s="9">
-        <v>0.5698018754847353</v>
+        <v>0.569801875</v>
       </c>
       <c r="I15" s="9">
-        <v>0.5719875907776916</v>
+        <v>0.571987591</v>
       </c>
       <c r="J15" s="9">
-        <v>0.5043361771134457</v>
+        <v>0.504336177</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>24</v>
@@ -1601,34 +1601,34 @@
         <v>24</v>
       </c>
       <c r="M15" s="9">
-        <v>0.5734682366213072</v>
+        <v>0.568709018</v>
       </c>
       <c r="N15" s="9">
-        <v>0.585383910315166</v>
+        <v>0.58538391</v>
       </c>
       <c r="O15" s="9">
-        <v>0.5846435873933582</v>
+        <v>0.584643587</v>
       </c>
       <c r="P15" s="8">
-        <v>0.9540999788479165</v>
+        <v>0.954099979</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.6169357681731651</v>
+        <v>0.6169357680000001</v>
       </c>
       <c r="R15" s="9">
-        <v>0.5732214623140379</v>
+        <v>0.573221462</v>
       </c>
       <c r="S15" s="9">
-        <v>0.4910456179933724</v>
+        <v>0.491045618</v>
       </c>
       <c r="T15" s="9">
-        <v>0.5911654797997603</v>
+        <v>0.59116548</v>
       </c>
       <c r="U15" s="9">
-        <v>0.5274977085242897</v>
+        <v>0.527497709</v>
       </c>
       <c r="V15" s="9">
-        <v>0.4047098639215963</v>
+        <v>0.404709864</v>
       </c>
       <c r="W15" s="9">
         <v>0.2939434534301629</v>
@@ -1642,28 +1642,28 @@
         <v>16</v>
       </c>
       <c r="C16" s="9">
-        <v>0.4937656794098925</v>
+        <v>0.4946362853339598</v>
       </c>
       <c r="D16" s="9">
-        <v>0.4362152244729846</v>
+        <v>0.398559236</v>
       </c>
       <c r="E16" s="9">
-        <v>0.3221627288725802</v>
+        <v>0.305614282</v>
       </c>
       <c r="F16" s="9">
-        <v>0.2988355112891751</v>
+        <v>0.266228173</v>
       </c>
       <c r="G16" s="9">
-        <v>0.4429175871494365</v>
+        <v>0.412888576</v>
       </c>
       <c r="H16" s="9">
-        <v>0.4474107911783428</v>
+        <v>0.460496437</v>
       </c>
       <c r="I16" s="9">
-        <v>0.5619500505485453</v>
+        <v>0.538955446</v>
       </c>
       <c r="J16" s="9">
-        <v>0.3615905942262328</v>
+        <v>0.399420562</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>24</v>
@@ -1672,37 +1672,37 @@
         <v>24</v>
       </c>
       <c r="M16" s="9">
-        <v>0.4402965514659078</v>
+        <v>0.353457051</v>
       </c>
       <c r="N16" s="9">
-        <v>0.4651963904594301</v>
+        <v>0.4625323</v>
       </c>
       <c r="O16" s="9">
-        <v>0.5471224772531545</v>
+        <v>0.536997886</v>
       </c>
       <c r="P16" s="9">
-        <v>0.582132025311716</v>
+        <v>0.586563307</v>
       </c>
       <c r="Q16" s="8">
-        <v>0.9370951435953121</v>
+        <v>0.979171561</v>
       </c>
       <c r="R16" s="9">
-        <v>0.5462612798142809</v>
+        <v>0.535979955</v>
       </c>
       <c r="S16" s="9">
-        <v>0.3503201407870596</v>
+        <v>0.355571216</v>
       </c>
       <c r="T16" s="9">
-        <v>0.4708503388624705</v>
+        <v>0.477879571</v>
       </c>
       <c r="U16" s="9">
-        <v>0.469390047553076</v>
+        <v>0.487902279</v>
       </c>
       <c r="V16" s="9">
-        <v>0.3926685887595013</v>
+        <v>0.39902905</v>
       </c>
       <c r="W16" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,25 +1716,25 @@
         <v>0.7160132631168324</v>
       </c>
       <c r="D17" s="9">
-        <v>0.5946947532670177</v>
+        <v>0.594694753</v>
       </c>
       <c r="E17" s="9">
-        <v>0.7019699629412912</v>
+        <v>0.701969963</v>
       </c>
       <c r="F17" s="9">
-        <v>0.6583772186463819</v>
+        <v>0.658377219</v>
       </c>
       <c r="G17" s="9">
-        <v>0.6779793251414082</v>
+        <v>0.677979325</v>
       </c>
       <c r="H17" s="9">
-        <v>0.7003120733372342</v>
+        <v>0.700312073</v>
       </c>
       <c r="I17" s="9">
-        <v>0.6958260191144919</v>
+        <v>0.695826019</v>
       </c>
       <c r="J17" s="9">
-        <v>0.647844743514726</v>
+        <v>0.647844744</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>24</v>
@@ -1743,34 +1743,34 @@
         <v>24</v>
       </c>
       <c r="M17" s="9">
-        <v>0.686268773161693</v>
+        <v>0.689389507</v>
       </c>
       <c r="N17" s="9">
-        <v>0.7268383070021455</v>
+        <v>0.726838307</v>
       </c>
       <c r="O17" s="9">
-        <v>0.7429295884532865</v>
+        <v>0.742929588</v>
       </c>
       <c r="P17" s="9">
-        <v>0.618587868149015</v>
+        <v>0.618587868</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.6774917105519798</v>
+        <v>0.6774917110000001</v>
       </c>
       <c r="R17" s="8">
-        <v>0.9325141408230935</v>
+        <v>0.932514141</v>
       </c>
       <c r="S17" s="9">
-        <v>0.5807489760093622</v>
+        <v>0.580748976</v>
       </c>
       <c r="T17" s="9">
-        <v>0.7039204212990052</v>
+        <v>0.703920421</v>
       </c>
       <c r="U17" s="9">
-        <v>0.6671542812560952</v>
+        <v>0.667154281</v>
       </c>
       <c r="V17" s="9">
-        <v>0.5224302711137118</v>
+        <v>0.5224302709999999</v>
       </c>
       <c r="W17" s="9">
         <v>0.2672127950068266</v>
@@ -1787,25 +1787,25 @@
         <v>0.6327490380504489</v>
       </c>
       <c r="D18" s="9">
-        <v>0.597592659584964</v>
+        <v>0.59759266</v>
       </c>
       <c r="E18" s="9">
-        <v>0.7013516624461472</v>
+        <v>0.701351662</v>
       </c>
       <c r="F18" s="9">
-        <v>0.6847107573913901</v>
+        <v>0.6847107569999999</v>
       </c>
       <c r="G18" s="9">
-        <v>0.6694182260663663</v>
+        <v>0.669418226</v>
       </c>
       <c r="H18" s="9">
-        <v>0.6814878153056861</v>
+        <v>0.681487815</v>
       </c>
       <c r="I18" s="9">
-        <v>0.4998848949255106</v>
+        <v>0.499884895</v>
       </c>
       <c r="J18" s="9">
-        <v>0.5464860065116585</v>
+        <v>0.5464860070000001</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>24</v>
@@ -1814,34 +1814,34 @@
         <v>24</v>
       </c>
       <c r="M18" s="9">
-        <v>0.6822442200809025</v>
+        <v>0.624658796</v>
       </c>
       <c r="N18" s="9">
-        <v>0.5454993915874634</v>
+        <v>0.545499392</v>
       </c>
       <c r="O18" s="9">
-        <v>0.5330680435426053</v>
+        <v>0.533068044</v>
       </c>
       <c r="P18" s="9">
-        <v>0.4639063373565298</v>
+        <v>0.463906337</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.4335514848554609</v>
+        <v>0.433551485</v>
       </c>
       <c r="R18" s="9">
-        <v>0.5400401223402506</v>
+        <v>0.540040122</v>
       </c>
       <c r="S18" s="8">
-        <v>0.971289505705923</v>
+        <v>0.971289506</v>
       </c>
       <c r="T18" s="9">
-        <v>0.8070510079915809</v>
+        <v>0.807051008</v>
       </c>
       <c r="U18" s="9">
-        <v>0.6514289472818758</v>
+        <v>0.651428947</v>
       </c>
       <c r="V18" s="9">
-        <v>0.4862367218074786</v>
+        <v>0.486236722</v>
       </c>
       <c r="W18" s="9">
         <v>0.2971181376820615</v>
@@ -1858,25 +1858,25 @@
         <v>0.6635396710048226</v>
       </c>
       <c r="D19" s="9">
-        <v>0.550967827178437</v>
+        <v>0.550967827</v>
       </c>
       <c r="E19" s="9">
-        <v>0.6453722666314329</v>
+        <v>0.6453722670000001</v>
       </c>
       <c r="F19" s="9">
-        <v>0.5444936248926472</v>
+        <v>0.544493625</v>
       </c>
       <c r="G19" s="9">
-        <v>0.5448239413357997</v>
+        <v>0.544823941</v>
       </c>
       <c r="H19" s="9">
-        <v>0.6591134306665786</v>
+        <v>0.659113431</v>
       </c>
       <c r="I19" s="9">
-        <v>0.5167470436678337</v>
+        <v>0.516747044</v>
       </c>
       <c r="J19" s="9">
-        <v>0.4899253484838475</v>
+        <v>0.489925348</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>24</v>
@@ -1885,34 +1885,34 @@
         <v>24</v>
       </c>
       <c r="M19" s="9">
-        <v>0.6521767853603753</v>
+        <v>0.623571381</v>
       </c>
       <c r="N19" s="9">
-        <v>0.5157560943383762</v>
+        <v>0.515756094</v>
       </c>
       <c r="O19" s="9">
-        <v>0.4774393869326815</v>
+        <v>0.477439387</v>
       </c>
       <c r="P19" s="9">
-        <v>0.4611878179295765</v>
+        <v>0.461187818</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.4277597938825395</v>
+        <v>0.427759794</v>
       </c>
       <c r="R19" s="9">
-        <v>0.4889343991543899</v>
+        <v>0.488934399</v>
       </c>
       <c r="S19" s="9">
-        <v>0.678536037523948</v>
+        <v>0.678536038</v>
       </c>
       <c r="T19" s="8">
-        <v>0.9724516086410782</v>
+        <v>0.9724516090000001</v>
       </c>
       <c r="U19" s="9">
-        <v>0.6459668362291074</v>
+        <v>0.645966836</v>
       </c>
       <c r="V19" s="9">
-        <v>0.4781660831076171</v>
+        <v>0.478166083</v>
       </c>
       <c r="W19" s="9">
         <v>0.2026161062297681</v>
@@ -1929,25 +1929,25 @@
         <v>0.2447048219918882</v>
       </c>
       <c r="D20" s="9">
-        <v>0.2361424064894097</v>
+        <v>0.236142406</v>
       </c>
       <c r="E20" s="9">
-        <v>0.3411446597566472</v>
+        <v>0.34114466</v>
       </c>
       <c r="F20" s="9">
-        <v>0.3267237494366832</v>
+        <v>0.326723749</v>
       </c>
       <c r="G20" s="9">
-        <v>0.07165389815232087</v>
+        <v>0.07165389799999999</v>
       </c>
       <c r="H20" s="9">
-        <v>0.3970256872465074</v>
+        <v>0.397025687</v>
       </c>
       <c r="I20" s="9">
-        <v>0.2429022082018927</v>
+        <v>0.242902208</v>
       </c>
       <c r="J20" s="9">
-        <v>0.3181613339342046</v>
+        <v>0.318161334</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>24</v>
@@ -1956,34 +1956,34 @@
         <v>24</v>
       </c>
       <c r="M20" s="9">
-        <v>0.3826047769265435</v>
+        <v>0.288418206</v>
       </c>
       <c r="N20" s="9">
-        <v>0.2852636322667869</v>
+        <v>0.285263632</v>
       </c>
       <c r="O20" s="9">
-        <v>0.3483551149166291</v>
+        <v>0.348355115</v>
       </c>
       <c r="P20" s="9">
-        <v>0.2924740874267688</v>
+        <v>0.292474087</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.2748986029743127</v>
+        <v>0.274898603</v>
       </c>
       <c r="R20" s="9">
-        <v>0.3497070752591258</v>
+        <v>0.349707075</v>
       </c>
       <c r="S20" s="9">
-        <v>0.2875168995042812</v>
+        <v>0.2875169</v>
       </c>
       <c r="T20" s="9">
-        <v>0.3546642631816133</v>
+        <v>0.354664263</v>
       </c>
       <c r="U20" s="8">
-        <v>0.829202343397927</v>
+        <v>0.829202343</v>
       </c>
       <c r="V20" s="9">
-        <v>0.3465525011266336</v>
+        <v>0.346552501</v>
       </c>
       <c r="W20" s="9">
         <v>0.199188823794502</v>
@@ -2000,25 +2000,25 @@
         <v>0.1743881513591619</v>
       </c>
       <c r="D21" s="9">
-        <v>0.1422378759143864</v>
+        <v>0.142237876</v>
       </c>
       <c r="E21" s="9">
-        <v>0.3103043438995756</v>
+        <v>0.310304344</v>
       </c>
       <c r="F21" s="9">
-        <v>0.2145759956651314</v>
+        <v>0.214575996</v>
       </c>
       <c r="G21" s="9">
-        <v>0.1283301724916464</v>
+        <v>0.128330172</v>
       </c>
       <c r="H21" s="9">
-        <v>0.2441975977603179</v>
+        <v>0.244197598</v>
       </c>
       <c r="I21" s="9">
-        <v>0.2059965682290256</v>
+        <v>0.205996568</v>
       </c>
       <c r="J21" s="9">
-        <v>0.3135554953490473</v>
+        <v>0.313555495</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>24</v>
@@ -2027,34 +2027,34 @@
         <v>24</v>
       </c>
       <c r="M21" s="9">
-        <v>0.3171678858484602</v>
+        <v>0.204551612</v>
       </c>
       <c r="N21" s="9">
-        <v>0.2586471597579698</v>
+        <v>0.25864716</v>
       </c>
       <c r="O21" s="9">
-        <v>0.3611487401788133</v>
+        <v>0.36114874</v>
       </c>
       <c r="P21" s="9">
-        <v>0.180258285920708</v>
+        <v>0.180258286</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.309310936512237</v>
+        <v>0.309310937</v>
       </c>
       <c r="R21" s="9">
-        <v>0.3182516029982841</v>
+        <v>0.318251603</v>
       </c>
       <c r="S21" s="9">
-        <v>0.1477467714259912</v>
+        <v>0.147746771</v>
       </c>
       <c r="T21" s="9">
-        <v>0.219181793551883</v>
+        <v>0.219181794</v>
       </c>
       <c r="U21" s="9">
-        <v>0.3744242752641561</v>
+        <v>0.374424275</v>
       </c>
       <c r="V21" s="8">
-        <v>0.9274812607242843</v>
+        <v>0.9274812609999999</v>
       </c>
       <c r="W21" s="9">
         <v>0.1919985550438002</v>
@@ -2066,28 +2066,28 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="8">
-        <v>0.676778064538504</v>
+        <v>0.6746565897847603</v>
       </c>
       <c r="D23" s="9">
-        <v>0.5906327921268405</v>
+        <v>0.5817149637105826</v>
       </c>
       <c r="E23" s="9">
-        <v>0.6461274597576688</v>
+        <v>0.6454157503595511</v>
       </c>
       <c r="F23" s="9">
-        <v>0.6004031699755211</v>
+        <v>0.5980234337706299</v>
       </c>
       <c r="G23" s="9">
-        <v>0.6135116842846067</v>
+        <v>0.6152066170826587</v>
       </c>
       <c r="H23" s="9">
-        <v>0.6496787677543918</v>
+        <v>0.6470043778740291</v>
       </c>
       <c r="I23" s="9">
-        <v>0.5922442624672616</v>
+        <v>0.5921091867757522</v>
       </c>
       <c r="J23" s="9">
-        <v>0.5198051850011136</v>
+        <v>0.5247803156854928</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>24</v>
@@ -2096,37 +2096,37 @@
         <v>24</v>
       </c>
       <c r="M23" s="9">
-        <v>0.6502880505383938</v>
+        <v>0.6160049909491065</v>
       </c>
       <c r="N23" s="9">
-        <v>0.598156046152447</v>
+        <v>0.6013318934012107</v>
       </c>
       <c r="O23" s="9">
-        <v>0.5909142079429902</v>
+        <v>0.5919306561674325</v>
       </c>
       <c r="P23" s="9">
-        <v>0.5380492791975697</v>
+        <v>0.5381703554189906</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.5426525313057806</v>
+        <v>0.5415995388675123</v>
       </c>
       <c r="R23" s="9">
-        <v>0.5813242865246425</v>
+        <v>0.5803792089040826</v>
       </c>
       <c r="S23" s="9">
-        <v>0.5651402426542141</v>
+        <v>0.5602670969182204</v>
       </c>
       <c r="T23" s="9">
-        <v>0.6683829150022114</v>
+        <v>0.6659289467129357</v>
       </c>
       <c r="U23" s="9">
-        <v>0.624516698744054</v>
+        <v>0.6232184168445706</v>
       </c>
       <c r="V23" s="9">
-        <v>0.4729136969199678</v>
+        <v>0.4736838011747688</v>
       </c>
       <c r="W23" s="9">
-        <v>0.2361046209457864</v>
+        <v>0.2387317359870775</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2204,28 +2204,28 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="8">
-        <v>0.8614398243742259</v>
+        <v>0.8610662813950011</v>
       </c>
       <c r="D28" s="9">
-        <v>0.7681940753084591</v>
+        <v>0.7508231087002135</v>
       </c>
       <c r="E28" s="9">
-        <v>0.8502351225634459</v>
+        <v>0.8471040569662941</v>
       </c>
       <c r="F28" s="9">
-        <v>0.7859258854601736</v>
+        <v>0.7870703395283939</v>
       </c>
       <c r="G28" s="9">
-        <v>0.7893757699910077</v>
+        <v>0.8047828407141028</v>
       </c>
       <c r="H28" s="9">
-        <v>0.8109657104178545</v>
+        <v>0.8005376003213109</v>
       </c>
       <c r="I28" s="9">
-        <v>0.6370763309027995</v>
+        <v>0.6373956842898824</v>
       </c>
       <c r="J28" s="9">
-        <v>0.5637767689546771</v>
+        <v>0.5668205378373938</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>24</v>
@@ -2234,37 +2234,37 @@
         <v>24</v>
       </c>
       <c r="M28" s="9">
-        <v>0.7587434480703802</v>
+        <v>0.763342443838838</v>
       </c>
       <c r="N28" s="9">
-        <v>0.7005698245108553</v>
+        <v>0.7064972099371677</v>
       </c>
       <c r="O28" s="9">
-        <v>0.6414385613365469</v>
+        <v>0.6437851303635355</v>
       </c>
       <c r="P28" s="9">
-        <v>0.5751130649121154</v>
+        <v>0.5727006476601365</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.5377210499085674</v>
+        <v>0.5332161032471222</v>
       </c>
       <c r="R28" s="9">
-        <v>0.6666314350717523</v>
+        <v>0.6668794046962619</v>
       </c>
       <c r="S28" s="9">
-        <v>0.6808370281165678</v>
+        <v>0.6797734955743647</v>
       </c>
       <c r="T28" s="9">
-        <v>0.7642079253302834</v>
+        <v>0.757490738257629</v>
       </c>
       <c r="U28" s="9">
-        <v>0.697047345846573</v>
+        <v>0.6932169866744736</v>
       </c>
       <c r="V28" s="9">
-        <v>0.4750147184355825</v>
+        <v>0.4734291280534346</v>
       </c>
       <c r="W28" s="9">
-        <v>0.2058907154132344</v>
+        <v>0.2060100719466038</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2272,29 +2272,29 @@
         <v>25</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="8">
-        <v>0.6899585606669193</v>
+      <c r="C29" s="9">
+        <v>0.6846377532673326</v>
       </c>
       <c r="D29" s="9">
-        <v>0.5523029362939758</v>
+        <v>0.5481104334</v>
       </c>
       <c r="E29" s="9">
-        <v>0.5698831880742086</v>
+        <v>0.5768306642000001</v>
       </c>
       <c r="F29" s="9">
-        <v>0.5527333397584625</v>
+        <v>0.5515820772000001</v>
       </c>
       <c r="G29" s="9">
-        <v>0.6183802732469038</v>
+        <v>0.6205687188000001</v>
       </c>
       <c r="H29" s="9">
-        <v>0.6216473204970703</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.6843374968725182</v>
+        <v>0.6150689582</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.6871789479999999</v>
       </c>
       <c r="J29" s="9">
-        <v>0.5352448003582975</v>
+        <v>0.5429234780000001</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>24</v>
@@ -2303,37 +2303,37 @@
         <v>24</v>
       </c>
       <c r="M29" s="9">
-        <v>0.6347794392913119</v>
+        <v>0.57824236775</v>
       </c>
       <c r="N29" s="9">
-        <v>0.6109903707966799</v>
+        <v>0.616478546</v>
       </c>
       <c r="O29" s="9">
-        <v>0.5940811819073996</v>
+        <v>0.5994783598000001</v>
       </c>
       <c r="P29" s="9">
-        <v>0.5727559303087378</v>
+        <v>0.575863802</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.5801950724131849</v>
+        <v>0.5828923248</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5427187670099285</v>
+        <v>0.5460820481999999</v>
       </c>
       <c r="S29" s="9">
-        <v>0.5743281108974158</v>
+        <v>0.5555550215999999</v>
       </c>
       <c r="T29" s="9">
-        <v>0.6793022951034604</v>
+        <v>0.6759196328</v>
       </c>
       <c r="U29" s="9">
-        <v>0.5942054816139313</v>
+        <v>0.5933781874</v>
       </c>
       <c r="V29" s="9">
-        <v>0.461484903242399</v>
+        <v>0.4688687238</v>
       </c>
       <c r="W29" s="9">
-        <v>0.2553364416183978</v>
+        <v>0.2561708439026856</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2342,28 +2342,28 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="9">
-        <v>0.6772819237239055</v>
+        <v>0.6749146700384909</v>
       </c>
       <c r="D30" s="9">
-        <v>0.6185194446461195</v>
+        <v>0.6061951662</v>
       </c>
       <c r="E30" s="9">
-        <v>0.6355314498947261</v>
+        <v>0.6290105436000001</v>
       </c>
       <c r="F30" s="9">
-        <v>0.5887719952111737</v>
+        <v>0.5797358062000001</v>
       </c>
       <c r="G30" s="9">
-        <v>0.6407431094343677</v>
+        <v>0.6295883379999999</v>
       </c>
       <c r="H30" s="9">
-        <v>0.639801380355946</v>
+        <v>0.6466451712</v>
       </c>
       <c r="I30" s="9">
-        <v>0.6454604597893673</v>
+        <v>0.6422907872000001</v>
       </c>
       <c r="J30" s="9">
-        <v>0.536906103116229</v>
+        <v>0.546016135</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>24</v>
@@ -2372,37 +2372,37 @@
         <v>24</v>
       </c>
       <c r="M30" s="9">
-        <v>0.6459401692851343</v>
+        <v>0.6139741398</v>
       </c>
       <c r="N30" s="9">
-        <v>0.6253569494743405</v>
+        <v>0.6246909267499999</v>
       </c>
       <c r="O30" s="9">
-        <v>0.6720803469474519</v>
+        <v>0.6666421499999999</v>
       </c>
       <c r="P30" s="9">
-        <v>0.6276629337759644</v>
+        <v>0.62797183225</v>
       </c>
       <c r="Q30" s="8">
-        <v>0.6843939037669884</v>
+        <v>0.682778044</v>
       </c>
       <c r="R30" s="9">
-        <v>0.6587114496840005</v>
+        <v>0.6496462752500001</v>
       </c>
       <c r="S30" s="9">
-        <v>0.5334404357578727</v>
+        <v>0.5349718102000001</v>
       </c>
       <c r="T30" s="9">
-        <v>0.6673238585635877</v>
+        <v>0.6694420658</v>
       </c>
       <c r="U30" s="9">
-        <v>0.6081371468425586</v>
+        <v>0.608627401</v>
       </c>
       <c r="V30" s="9">
-        <v>0.5033784217224333</v>
+        <v>0.5008237058</v>
       </c>
       <c r="W30" s="9">
-        <v>0.2638288591188402</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2414,25 +2414,25 @@
         <v>0.4288454206015804</v>
       </c>
       <c r="D31" s="9">
-        <v>0.3817351922917993</v>
+        <v>0.38173519225</v>
       </c>
       <c r="E31" s="9">
-        <v>0.4995432331834507</v>
+        <v>0.4995432332499999</v>
       </c>
       <c r="F31" s="9">
-        <v>0.442626031846463</v>
+        <v>0.44262603175</v>
       </c>
       <c r="G31" s="9">
-        <v>0.3535565595115333</v>
+        <v>0.3535565592500001</v>
       </c>
       <c r="H31" s="9">
-        <v>0.4954561327447725</v>
+        <v>0.4954561327499999</v>
       </c>
       <c r="I31" s="9">
-        <v>0.3663826787560657</v>
+        <v>0.36638267875</v>
       </c>
       <c r="J31" s="9">
-        <v>0.4170320460696895</v>
+        <v>0.417032046</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>24</v>
@@ -2441,34 +2441,34 @@
         <v>24</v>
       </c>
       <c r="M31" s="9">
-        <v>0.5085484170540704</v>
+        <v>0.43529999875</v>
       </c>
       <c r="N31" s="9">
-        <v>0.4012915694876491</v>
+        <v>0.4012915694999999</v>
       </c>
       <c r="O31" s="9">
-        <v>0.4300028213926823</v>
+        <v>0.4300028215</v>
       </c>
       <c r="P31" s="9">
-        <v>0.3494566321583958</v>
+        <v>0.349456632</v>
       </c>
       <c r="Q31" s="9">
-        <v>0.3613802045561375</v>
+        <v>0.36138020475</v>
       </c>
       <c r="R31" s="9">
-        <v>0.4242332999380126</v>
+        <v>0.42423329975</v>
       </c>
       <c r="S31" s="9">
-        <v>0.3712665694847401</v>
+        <v>0.3712665696666667</v>
       </c>
       <c r="T31" s="9">
-        <v>0.4602990215750257</v>
+        <v>0.4602990216666666</v>
       </c>
       <c r="U31" s="8">
-        <v>0.5572733529250464</v>
+        <v>0.5572733526666667</v>
       </c>
       <c r="V31" s="9">
-        <v>0.4369851020139097</v>
+        <v>0.436985102</v>
       </c>
       <c r="W31" s="9">
         <v>0.2227304056875329</v>
@@ -2480,28 +2480,28 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="8">
-        <v>0.6643814323416577</v>
+        <v>0.6623660313256012</v>
       </c>
       <c r="D33" s="9">
-        <v>0.5801879121350884</v>
+        <v>0.5717159751375533</v>
       </c>
       <c r="E33" s="9">
-        <v>0.6387982484289578</v>
+        <v>0.6381221245040736</v>
       </c>
       <c r="F33" s="9">
-        <v>0.5925143130690682</v>
+        <v>0.5902535636695986</v>
       </c>
       <c r="G33" s="9">
-        <v>0.6005139280459532</v>
+        <v>0.6021241141910256</v>
       </c>
       <c r="H33" s="9">
-        <v>0.6419676360039108</v>
+        <v>0.6394269656178276</v>
       </c>
       <c r="I33" s="9">
-        <v>0.5833142415801877</v>
+        <v>0.5833120245599707</v>
       </c>
       <c r="J33" s="9">
-        <v>0.5132399296247233</v>
+        <v>0.5181980492093485</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>24</v>
@@ -2510,37 +2510,37 @@
         <v>24</v>
       </c>
       <c r="M33" s="9">
-        <v>0.6370028684252242</v>
+        <v>0.5977147375347095</v>
       </c>
       <c r="N33" s="9">
-        <v>0.5845521785673812</v>
+        <v>0.5872395630467919</v>
       </c>
       <c r="O33" s="9">
-        <v>0.5844007278960202</v>
+        <v>0.5849771154158838</v>
       </c>
       <c r="P33" s="9">
-        <v>0.5312471402888034</v>
+        <v>0.5314982284775341</v>
       </c>
       <c r="Q33" s="9">
-        <v>0.5409225576612195</v>
+        <v>0.5400666691992806</v>
       </c>
       <c r="R33" s="9">
-        <v>0.5730737379259235</v>
+        <v>0.5717102569740654</v>
       </c>
       <c r="S33" s="9">
-        <v>0.5399680360641491</v>
+        <v>0.5353917242602578</v>
       </c>
       <c r="T33" s="9">
-        <v>0.6427832751430893</v>
+        <v>0.6407878646310738</v>
       </c>
       <c r="U33" s="9">
-        <v>0.6141658318070273</v>
+        <v>0.6131239819352852</v>
       </c>
       <c r="V33" s="9">
-        <v>0.4692157863535811</v>
+        <v>0.4700266649133586</v>
       </c>
       <c r="W33" s="9">
-        <v>0.2369466054595014</v>
+        <v>0.2395677526741239</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="8">
-        <v>0.8110227313525278</v>
+        <v>0.8085640379375527</v>
       </c>
       <c r="D38" s="9">
-        <v>0.6531988493092856</v>
+        <v>0.6558528886553714</v>
       </c>
       <c r="E38" s="9">
-        <v>0.6242947871479674</v>
+        <v>0.6246156991808448</v>
       </c>
       <c r="F38" s="9">
-        <v>0.6542767544322516</v>
+        <v>0.6509775871399754</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -2585,16 +2585,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.6008176030895901</v>
+        <v>0.5994664341778888</v>
       </c>
       <c r="D39" s="8">
-        <v>0.6181205788407093</v>
+        <v>0.6027815979166666</v>
       </c>
       <c r="E39" s="9">
-        <v>0.5801482644871863</v>
+        <v>0.5841590161599999</v>
       </c>
       <c r="F39" s="9">
-        <v>0.5773301977143016</v>
+        <v>0.5734303914</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="9">
-        <v>0.6334415505443732</v>
+        <v>0.6276816158730818</v>
       </c>
       <c r="D40" s="9">
-        <v>0.6094355773969102</v>
+        <v>0.6007603540000001</v>
       </c>
       <c r="E40" s="8">
-        <v>0.6536411167297491</v>
+        <v>0.6503458456500001</v>
       </c>
       <c r="F40" s="9">
-        <v>0.5780699657216131</v>
+        <v>0.5784662457</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -2621,16 +2621,16 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="9">
-        <v>0.4336270950299332</v>
+        <v>0.4336270949752634</v>
       </c>
       <c r="D41" s="9">
-        <v>0.4306543806266085</v>
+        <v>0.4062382411666667</v>
       </c>
       <c r="E41" s="9">
-        <v>0.3932729055065755</v>
+        <v>0.3932729055</v>
       </c>
       <c r="F41" s="8">
-        <v>0.4564560114996805</v>
+        <v>0.4564560115</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -2639,16 +2639,16 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="9">
-        <v>0.5559620828879656</v>
+        <v>0.5535917150087447</v>
       </c>
       <c r="D43" s="9">
-        <v>0.5644296024442682</v>
+        <v>0.5542838279406794</v>
       </c>
       <c r="E43" s="9">
-        <v>0.5325719857139096</v>
+        <v>0.5340158736136149</v>
       </c>
       <c r="F43" s="8">
-        <v>0.6032256392893888</v>
+        <v>0.6009580747466585</v>
       </c>
     </row>
   </sheetData>
